--- a/aim_1/Aim 1 - Beta Diversity Stats.xlsx
+++ b/aim_1/Aim 1 - Beta Diversity Stats.xlsx
@@ -398,7 +398,7 @@
         <v>1.514274229465885</v>
       </c>
       <c r="E2">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="3">
